--- a/public/template/Template_Export_Partner.xlsx
+++ b/public/template/Template_Export_Partner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadmukhtar/Projects/rpc-be/public/template_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadmukhtar/Projects/rpc-be/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C460B18B-BEE0-CA4B-A759-45CCD3F1DD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E319675-C245-7342-9A30-26179453807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16640" xr2:uid="{0674CD87-AF00-EC40-A640-CA30B1852CB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nama</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Dibuat Pada</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -433,32 +436,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0BD312-7EF2-F445-B81C-635468D350A0}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
